--- a/traduction.xlsx
+++ b/traduction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="0" windowWidth="26040" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="12480" yWindow="1380" windowWidth="26040" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="206">
   <si>
     <t>Caption</t>
   </si>
@@ -1103,6 +1103,73 @@
       &lt;p&gt;&lt;strong&gt;Food supplements&lt;/strong&gt;&lt;/p&gt;
       &lt;p&gt;With their authentic, effective and safe ingredients Equavie food  supplements help you to maximise your beauty and well-being from within.  Discover an innovative range, blending modernity and authenticity.&lt;/p&gt;
       &lt;p&gt;&lt;em&gt;Dietary supplements are available at all Wax-Zone centres&lt;/em&gt;&lt;em&gt;.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>misencil</t>
+  </si>
+  <si>
+    <t>misentitre1</t>
+  </si>
+  <si>
+    <t>misentext1</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Vous rêvez depuis longtemps de cils  accentués naturellement, d&amp;rsquo;un regard sublime et parfait dès votre  réveil… L&amp;rsquo;extension de cils est le dernier concept en vogue auprès des  célébrités.&lt;/p&gt;
+       &lt;p&gt;Les extensions précourbées sont  appliquées directement une à une sur vos cils naturels, à l&amp;rsquo;aide d&amp;rsquo;un  adhésif conçu spécialement à cet effet. Elles resteront en place tout au  long de la durée de vos cils naturels.&lt;/p&gt;
+       &lt;p&gt;Un regard de star naturel ou glamour, sans mascara! Plus longs, plus épais aussi longtemps que vous le souhaitez!&lt;/p&gt;
+       &lt;p&gt;&lt;em&gt;Soin réalisé actuellement sur rendez-vous.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>mentions</t>
+  </si>
+  <si>
+    <t>mentiontitre1</t>
+  </si>
+  <si>
+    <t>mentiontext1</t>
+  </si>
+  <si>
+    <t>Mentions légales</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wax-Zone SPRL&lt;br&gt;
+       Avenue de Tervueren, 113&lt;br&gt;
+       1040 Etterbeek&lt;br&gt;
+       Belgique&lt;/p&gt;
+      &lt;p&gt;TVA: BE 0476 462 486&lt;br&gt;
+      RPM Bruxelles&lt;/p&gt;
+      &lt;p&gt;Editeur responsable: Philippe Van Innis&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wax-Zone SPRL&lt;br&gt;
+       Chaussée de Waterloo, 544-546&lt;br&gt;
+       1040 Etterbeek&lt;br&gt;
+       Belgium&lt;/p&gt;
+      &lt;p&gt;TVA: BE 0476 462 486&lt;br&gt;
+      RPM Bruxelles&lt;/p&gt;
+      &lt;p&gt;Editeur responsable: Philippe Van Innis&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wax-Zone bvba&lt;br&gt;
+       Tervurenlaan,113&lt;br&gt;
+       1040 Etterbeek&lt;br&gt;
+       Belgie&lt;/p&gt;
+      &lt;p&gt;TVA: BE 0476 462 486&lt;br&gt;
+      RPM Bruxelles&lt;/p&gt;
+      &lt;p&gt;Editeur responsable: Philippe Van Innis&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;U droomt al lang van natuurlijk geaccentueerde wimpers, een sublieme en perfecte blik van bij het ontwaken … Wimperverlenging is het laatste nieuwe concept dat erg in trek is bij de beroemdheden.&lt;/p&gt;
+&lt;p&gt;Op een of meer natuurlijke wimpers worden voorgebogen verlengingen bevestigd met een speciaal kleefmiddel. Ze blijven even lang op hun plaats als uw natuurlijke wimpers.&lt;/p&gt;
+&lt;p&gt;Een natuurlijke of glamoureuze blik, zonder mascara! Langere en dikkere wimpers, zo lang als u zelf wenst!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;You&amp;rsquo;ve always dreamed of having naturally long lashes, your eyes magic and perfect from the moment you wake… Eyelash extensions are the very latest thing among the celebrities.&lt;/p&gt;
+&lt;p&gt;The pre-waved extensions are applied directly to your natural lashes using a specially designed adhesive. They stay in place as long as your natural lashes.&lt;/p&gt;
+&lt;p&gt;A natural or glamorous look, without mascara! Longer and thicker for as long as you like!&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1169,8 +1236,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1201,7 +1272,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1210,6 +1281,8 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1218,6 +1291,8 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1547,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2264,7 +2339,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="300">
+    <row r="49" spans="1:5" ht="300">
       <c r="B49" t="s">
         <v>81</v>
       </c>
@@ -2276,6 +2351,68 @@
       </c>
       <c r="E49" s="2" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="210">
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="105">
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
